--- a/GeneTreeRootingInformation.xlsx
+++ b/GeneTreeRootingInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachary\Desktop\phyparts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{350A022F-CA44-43A6-9182-24A2B705D68B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3FEF9C02-8AB8-4459-95D1-9D4CD36895F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E52C6787-E70A-4E0E-96EB-6AE3DC80BDF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="577">
   <si>
     <t>T239_L1</t>
   </si>
@@ -1729,14 +1729,49 @@
   </si>
   <si>
     <t>Only Ictiobus niger present</t>
+  </si>
+  <si>
+    <t>Catostomine tribes make sense</t>
+  </si>
+  <si>
+    <t>Moxostomatini and Catostomini mixed.</t>
+  </si>
+  <si>
+    <t>Catostominae makes sense.</t>
+  </si>
+  <si>
+    <t>Moxostoma is polyphyletic.</t>
+  </si>
+  <si>
+    <t>Makes a deep-bodied clade.</t>
+  </si>
+  <si>
+    <t>Catostominae is weird; Deep bodied clade formed.</t>
+  </si>
+  <si>
+    <t>Catostominae is weird</t>
+  </si>
+  <si>
+    <t>Catostominae is weird.</t>
+  </si>
+  <si>
+    <t>SUM-&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1764,8 +1799,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2080,11 +2116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF46601-3067-442A-ACC1-43A6B588592A}">
-  <dimension ref="A1:O268"/>
+  <dimension ref="A1:O270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,6 +5248,21 @@
       <c r="B113" t="s">
         <v>378</v>
       </c>
+      <c r="C113" t="s">
+        <v>552</v>
+      </c>
+      <c r="D113" t="s">
+        <v>552</v>
+      </c>
+      <c r="E113" t="s">
+        <v>552</v>
+      </c>
+      <c r="F113" t="s">
+        <v>551</v>
+      </c>
+      <c r="G113" t="s">
+        <v>555</v>
+      </c>
       <c r="I113" t="s">
         <v>378</v>
       </c>
@@ -5232,6 +5283,15 @@
       <c r="B114" t="s">
         <v>379</v>
       </c>
+      <c r="C114" t="s">
+        <v>552</v>
+      </c>
+      <c r="D114" t="s">
+        <v>551</v>
+      </c>
+      <c r="G114" t="s">
+        <v>568</v>
+      </c>
       <c r="I114" t="s">
         <v>379</v>
       </c>
@@ -5252,6 +5312,15 @@
       <c r="B115" t="s">
         <v>380</v>
       </c>
+      <c r="C115" t="s">
+        <v>552</v>
+      </c>
+      <c r="D115" t="s">
+        <v>551</v>
+      </c>
+      <c r="G115" t="s">
+        <v>567</v>
+      </c>
       <c r="I115" t="s">
         <v>380</v>
       </c>
@@ -5272,6 +5341,21 @@
       <c r="B116" t="s">
         <v>381</v>
       </c>
+      <c r="C116" t="s">
+        <v>552</v>
+      </c>
+      <c r="D116" t="s">
+        <v>552</v>
+      </c>
+      <c r="E116" t="s">
+        <v>552</v>
+      </c>
+      <c r="F116" t="s">
+        <v>552</v>
+      </c>
+      <c r="G116" t="s">
+        <v>556</v>
+      </c>
       <c r="I116" t="s">
         <v>381</v>
       </c>
@@ -5292,6 +5376,9 @@
       <c r="B117" t="s">
         <v>382</v>
       </c>
+      <c r="C117" t="s">
+        <v>551</v>
+      </c>
       <c r="I117" t="s">
         <v>382</v>
       </c>
@@ -5335,6 +5422,15 @@
       <c r="B119" t="s">
         <v>384</v>
       </c>
+      <c r="C119" t="s">
+        <v>552</v>
+      </c>
+      <c r="D119" t="s">
+        <v>551</v>
+      </c>
+      <c r="G119" t="s">
+        <v>569</v>
+      </c>
       <c r="I119" t="s">
         <v>384</v>
       </c>
@@ -5355,6 +5451,21 @@
       <c r="B120" t="s">
         <v>385</v>
       </c>
+      <c r="C120" t="s">
+        <v>552</v>
+      </c>
+      <c r="D120" t="s">
+        <v>552</v>
+      </c>
+      <c r="E120" t="s">
+        <v>552</v>
+      </c>
+      <c r="F120" t="s">
+        <v>552</v>
+      </c>
+      <c r="G120" t="s">
+        <v>556</v>
+      </c>
       <c r="I120" t="s">
         <v>385</v>
       </c>
@@ -5444,6 +5555,9 @@
       <c r="B124" t="s">
         <v>389</v>
       </c>
+      <c r="C124" t="s">
+        <v>551</v>
+      </c>
       <c r="I124" t="s">
         <v>389</v>
       </c>
@@ -5464,6 +5578,9 @@
       <c r="B125" t="s">
         <v>390</v>
       </c>
+      <c r="C125" t="s">
+        <v>551</v>
+      </c>
       <c r="I125" t="s">
         <v>390</v>
       </c>
@@ -5507,6 +5624,9 @@
       <c r="B127" t="s">
         <v>392</v>
       </c>
+      <c r="C127" t="s">
+        <v>551</v>
+      </c>
       <c r="I127" t="s">
         <v>392</v>
       </c>
@@ -5665,6 +5785,9 @@
       <c r="B134" t="s">
         <v>399</v>
       </c>
+      <c r="C134" t="s">
+        <v>551</v>
+      </c>
       <c r="I134" t="s">
         <v>399</v>
       </c>
@@ -5685,6 +5808,21 @@
       <c r="B135" t="s">
         <v>400</v>
       </c>
+      <c r="C135" t="s">
+        <v>552</v>
+      </c>
+      <c r="D135" t="s">
+        <v>552</v>
+      </c>
+      <c r="E135" t="s">
+        <v>552</v>
+      </c>
+      <c r="F135" t="s">
+        <v>551</v>
+      </c>
+      <c r="G135" t="s">
+        <v>555</v>
+      </c>
       <c r="I135" t="s">
         <v>400</v>
       </c>
@@ -5705,6 +5843,15 @@
       <c r="B136" t="s">
         <v>401</v>
       </c>
+      <c r="C136" t="s">
+        <v>552</v>
+      </c>
+      <c r="D136" t="s">
+        <v>551</v>
+      </c>
+      <c r="G136" t="s">
+        <v>569</v>
+      </c>
       <c r="I136" t="s">
         <v>401</v>
       </c>
@@ -5725,6 +5872,9 @@
       <c r="B137" t="s">
         <v>402</v>
       </c>
+      <c r="C137" t="s">
+        <v>551</v>
+      </c>
       <c r="I137" t="s">
         <v>402</v>
       </c>
@@ -5768,6 +5918,15 @@
       <c r="B139" t="s">
         <v>404</v>
       </c>
+      <c r="C139" t="s">
+        <v>552</v>
+      </c>
+      <c r="D139" t="s">
+        <v>551</v>
+      </c>
+      <c r="G139" t="s">
+        <v>570</v>
+      </c>
       <c r="I139" t="s">
         <v>404</v>
       </c>
@@ -5788,6 +5947,15 @@
       <c r="B140" t="s">
         <v>405</v>
       </c>
+      <c r="C140" t="s">
+        <v>552</v>
+      </c>
+      <c r="D140" t="s">
+        <v>551</v>
+      </c>
+      <c r="G140" t="s">
+        <v>571</v>
+      </c>
       <c r="I140" t="s">
         <v>405</v>
       </c>
@@ -5808,6 +5976,15 @@
       <c r="B141" t="s">
         <v>406</v>
       </c>
+      <c r="C141" t="s">
+        <v>552</v>
+      </c>
+      <c r="D141" t="s">
+        <v>551</v>
+      </c>
+      <c r="G141" t="s">
+        <v>572</v>
+      </c>
       <c r="I141" t="s">
         <v>406</v>
       </c>
@@ -5828,6 +6005,9 @@
       <c r="B142" t="s">
         <v>407</v>
       </c>
+      <c r="C142" t="s">
+        <v>551</v>
+      </c>
       <c r="I142" t="s">
         <v>407</v>
       </c>
@@ -5848,6 +6028,15 @@
       <c r="B143" t="s">
         <v>408</v>
       </c>
+      <c r="C143" t="s">
+        <v>552</v>
+      </c>
+      <c r="D143" t="s">
+        <v>551</v>
+      </c>
+      <c r="G143" t="s">
+        <v>573</v>
+      </c>
       <c r="I143" t="s">
         <v>408</v>
       </c>
@@ -5868,6 +6057,15 @@
       <c r="B144" t="s">
         <v>409</v>
       </c>
+      <c r="C144" t="s">
+        <v>552</v>
+      </c>
+      <c r="D144" t="s">
+        <v>551</v>
+      </c>
+      <c r="G144" t="s">
+        <v>574</v>
+      </c>
       <c r="I144" t="s">
         <v>409</v>
       </c>
@@ -5888,6 +6086,9 @@
       <c r="B145" t="s">
         <v>410</v>
       </c>
+      <c r="C145" t="s">
+        <v>551</v>
+      </c>
       <c r="I145" t="s">
         <v>410</v>
       </c>
@@ -5908,6 +6109,9 @@
       <c r="B146" t="s">
         <v>411</v>
       </c>
+      <c r="C146" t="s">
+        <v>551</v>
+      </c>
       <c r="I146" t="s">
         <v>411</v>
       </c>
@@ -5974,6 +6178,21 @@
       <c r="B149" t="s">
         <v>414</v>
       </c>
+      <c r="C149" t="s">
+        <v>552</v>
+      </c>
+      <c r="D149" t="s">
+        <v>552</v>
+      </c>
+      <c r="E149" t="s">
+        <v>552</v>
+      </c>
+      <c r="F149" t="s">
+        <v>551</v>
+      </c>
+      <c r="G149" t="s">
+        <v>575</v>
+      </c>
       <c r="I149" t="s">
         <v>414</v>
       </c>
@@ -6017,6 +6236,9 @@
       <c r="B151" t="s">
         <v>416</v>
       </c>
+      <c r="C151" t="s">
+        <v>551</v>
+      </c>
       <c r="I151" t="s">
         <v>416</v>
       </c>
@@ -6037,6 +6259,9 @@
       <c r="B152" t="s">
         <v>417</v>
       </c>
+      <c r="C152" t="s">
+        <v>551</v>
+      </c>
       <c r="I152" t="s">
         <v>417</v>
       </c>
@@ -6080,6 +6305,12 @@
       <c r="B154" t="s">
         <v>419</v>
       </c>
+      <c r="C154" t="s">
+        <v>552</v>
+      </c>
+      <c r="D154" t="s">
+        <v>551</v>
+      </c>
       <c r="I154" t="s">
         <v>419</v>
       </c>
@@ -6100,6 +6331,9 @@
       <c r="B155" t="s">
         <v>420</v>
       </c>
+      <c r="C155" t="s">
+        <v>551</v>
+      </c>
       <c r="I155" t="s">
         <v>420</v>
       </c>
@@ -6143,6 +6377,9 @@
       <c r="B157" t="s">
         <v>422</v>
       </c>
+      <c r="C157" t="s">
+        <v>551</v>
+      </c>
       <c r="I157" t="s">
         <v>422</v>
       </c>
@@ -6186,6 +6423,21 @@
       <c r="B159" t="s">
         <v>424</v>
       </c>
+      <c r="C159" t="s">
+        <v>552</v>
+      </c>
+      <c r="D159" t="s">
+        <v>552</v>
+      </c>
+      <c r="E159" t="s">
+        <v>552</v>
+      </c>
+      <c r="F159" t="s">
+        <v>551</v>
+      </c>
+      <c r="G159" t="s">
+        <v>555</v>
+      </c>
       <c r="I159" t="s">
         <v>424</v>
       </c>
@@ -6275,6 +6527,21 @@
       <c r="B163" t="s">
         <v>428</v>
       </c>
+      <c r="C163" t="s">
+        <v>552</v>
+      </c>
+      <c r="D163" t="s">
+        <v>552</v>
+      </c>
+      <c r="E163" t="s">
+        <v>552</v>
+      </c>
+      <c r="F163" t="s">
+        <v>551</v>
+      </c>
+      <c r="G163" t="s">
+        <v>555</v>
+      </c>
       <c r="I163" t="s">
         <v>428</v>
       </c>
@@ -6295,6 +6562,9 @@
       <c r="B164" t="s">
         <v>429</v>
       </c>
+      <c r="C164" t="s">
+        <v>551</v>
+      </c>
       <c r="I164" t="s">
         <v>429</v>
       </c>
@@ -6315,6 +6585,9 @@
       <c r="B165" t="s">
         <v>430</v>
       </c>
+      <c r="C165" t="s">
+        <v>551</v>
+      </c>
       <c r="I165" t="s">
         <v>430</v>
       </c>
@@ -6335,6 +6608,9 @@
       <c r="B166" t="s">
         <v>431</v>
       </c>
+      <c r="C166" t="s">
+        <v>551</v>
+      </c>
       <c r="I166" t="s">
         <v>431</v>
       </c>
@@ -6355,6 +6631,9 @@
       <c r="B167" t="s">
         <v>432</v>
       </c>
+      <c r="C167" t="s">
+        <v>551</v>
+      </c>
       <c r="I167" t="s">
         <v>432</v>
       </c>
@@ -8472,7 +8751,35 @@
         <v>537</v>
       </c>
     </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <f>COUNTIF(C2:C268, "Y")</f>
+        <v>140</v>
+      </c>
+      <c r="D269">
+        <f t="shared" ref="D269:F269" si="0">COUNTIF(D2:D268, "Y")</f>
+        <v>13</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B270">
+        <f>SUM(C269:F269)</f>
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>